--- a/OutFile/LexicalParser.xlsx
+++ b/OutFile/LexicalParser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>type</t>
   </si>
@@ -28,15 +28,15 @@
     <t>LPAREN</t>
   </si>
   <si>
+    <t>LETTER</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
     <t>DIGIT</t>
   </si>
   <si>
-    <t>PLUS</t>
-  </si>
-  <si>
-    <t>LETTER</t>
-  </si>
-  <si>
     <t>RPAREN</t>
   </si>
   <si>
@@ -46,31 +46,25 @@
     <t>DIVIDE</t>
   </si>
   <si>
-    <t>MULTIPLY</t>
-  </si>
-  <si>
     <t>(</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>)</t>
   </si>
   <si>
     <t>^</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>*</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -460,8 +454,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>114</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -475,18 +469,18 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,21 +499,21 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,43 +521,21 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
